--- a/biology/Origine et évolution du vivant/Peter_D._Ashlock/Peter_D._Ashlock.xlsx
+++ b/biology/Origine et évolution du vivant/Peter_D._Ashlock/Peter_D._Ashlock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Dunning Ashlock, né le 22 août 1929 à San Francisco et mort le 26 janvier 1989 à Lawrence (Kansas), est un biologiste de l'évolution et entomologiste américain[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Dunning Ashlock, né le 22 août 1929 à San Francisco et mort le 26 janvier 1989 à Lawrence (Kansas), est un biologiste de l'évolution et entomologiste américain,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait son bachelor en entomologie à l'université de Berkeley (Californie), où il est formé notamment par Robert Usinger. Après deux ans de service militaire en Utah comme écologue entomologiste, il passe en 1956 son master à l'université du Connecticut à Storrs, où se révèle son intérêt pour les Lygaeidae, et où il fait la connaissance de James Alex Slater. Il retourne à Berkeley où il commence à travailler à son doctorat, consacré au genre Geocoris. En 1958, il obtient un poste à Washington au département de recherche entomologique du Musée national d'Histoire naturelle des États-Unis, où il devient ami d'un autre spécialiste des Lygaeidae, Harry Barber, et où il se consacre aux Lethaeini (Rhyparochominae). Il travaille ensuite à l'Université du Maryland. Il retourne ensuite à Berkeley, où il travaille avec R. Usinger, avec qui il fait un voyage de recherche de trois mois aux îles Galápagos, en Équateur et aux îles Cocos[1]. 
-Il a été curateur au Musée Bishop d'Honolulu (Hawaï) entre 1964 et 1967, période lors de laquelle il termine sa thèse et obtient son doctorat de Berkeley en 1966. Il enseigne un an à Storrs (1967-1968) en remplacement de James A. Slater, puis intègre l'Université du Kansas dès 1968, où il deviendra professeur en 1981 et où il restera jusqu'à sa mort en 1989[1]. C'est dans cette université que sa collection est déposée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait son bachelor en entomologie à l'université de Berkeley (Californie), où il est formé notamment par Robert Usinger. Après deux ans de service militaire en Utah comme écologue entomologiste, il passe en 1956 son master à l'université du Connecticut à Storrs, où se révèle son intérêt pour les Lygaeidae, et où il fait la connaissance de James Alex Slater. Il retourne à Berkeley où il commence à travailler à son doctorat, consacré au genre Geocoris. En 1958, il obtient un poste à Washington au département de recherche entomologique du Musée national d'Histoire naturelle des États-Unis, où il devient ami d'un autre spécialiste des Lygaeidae, Harry Barber, et où il se consacre aux Lethaeini (Rhyparochominae). Il travaille ensuite à l'Université du Maryland. Il retourne ensuite à Berkeley, où il travaille avec R. Usinger, avec qui il fait un voyage de recherche de trois mois aux îles Galápagos, en Équateur et aux îles Cocos. 
+Il a été curateur au Musée Bishop d'Honolulu (Hawaï) entre 1964 et 1967, période lors de laquelle il termine sa thèse et obtient son doctorat de Berkeley en 1966. Il enseigne un an à Storrs (1967-1968) en remplacement de James A. Slater, puis intègre l'Université du Kansas dès 1968, où il deviendra professeur en 1981 et où il restera jusqu'à sa mort en 1989. C'est dans cette université que sa collection est déposée.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Systématique évolutionniste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est systématicien évolutionniste appartenant à l'école Simpson-Mayr[a] après avoir suivi un séminaire de P. Wygodzinsky[1].
-En 1971, Ashlock définit l'holophylie[b] comme synonyme de la monophylie sensu Hennig, résultant en une signification différente du terme monophylie utilisé en systématique évolutionniste[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est systématicien évolutionniste appartenant à l'école Simpson-Mayr[a] après avoir suivi un séminaire de P. Wygodzinsky.
+En 1971, Ashlock définit l'holophylie[b] comme synonyme de la monophylie sensu Hennig, résultant en une signification différente du terme monophylie utilisé en systématique évolutionniste,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Hétéroptériste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En entomologie, Peter D. Ashlock s'est spécialisé dans l'étude des punaises (Heteroptera), en particulier de la famille des Lygaeidae, dont il fait la révision mondiale de la sous-famille des Orsillinae (et il y crée la tribu des Lepionysiini) en 1967, considérée comme un modèle de rigueur analytique[1]. Dans la famille des Rhyparochromidae (encore à l'époque une sous-famille des Lygaeidae), il crée en 1964 les tribus des Antillocorini et des Targaremini, qu'il a séparé des Lethaeini, qu'il avait reconnus comme polyphylétiques[3]. Il est le premier chercheur à avoir exploré en détail la nature complexe de l'utilisation de l'édéage pour établir les relations entre espèces ou rangs taxonomiques plus élevés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En entomologie, Peter D. Ashlock s'est spécialisé dans l'étude des punaises (Heteroptera), en particulier de la famille des Lygaeidae, dont il fait la révision mondiale de la sous-famille des Orsillinae (et il y crée la tribu des Lepionysiini) en 1967, considérée comme un modèle de rigueur analytique. Dans la famille des Rhyparochromidae (encore à l'époque une sous-famille des Lygaeidae), il crée en 1964 les tribus des Antillocorini et des Targaremini, qu'il a séparé des Lethaeini, qu'il avait reconnus comme polyphylétiques. Il est le premier chercheur à avoir exploré en détail la nature complexe de l'utilisation de l'édéage pour établir les relations entre espèces ou rangs taxonomiques plus élevés.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>[Ashlock 1964] (en) Peter D. Ashlock, « Two new tribes of Rhyparochrominae: a re-evaluation of the Lethaeini (Hemiptera-Heteroptera: Lygaeidae) », Annals of the Entomological Society of America, vol. 57, no 4,‎ 1964, p. 14-422 (ISSN 0013-8746, DOI 10.1093/aesa/57.4.414)
 [Ashlock 1967] (en) Peter D. Ashlock, « A generic classification of the Orsillinae of the world (Hemiptera-Heteroptera: Lygaeidae) », University of California publications in entomology, vol. 48,‎ 1967, VI+82
@@ -642,9 +662,11 @@
           <t>Taxons créés par Peter D. Ashlock</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon J. A. Slater et J. D. Polhemus[1] (complété à partir de Lygaeoidea Species Files[6]), les taxons créés par Peter D. Ashlock sont les suivants, dans les Lygaeidae, sauf mention des autres familles entre parenthèses. Il s'agit de 3 tribus, de 13 genres et de 117 espèces : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon J. A. Slater et J. D. Polhemus (complété à partir de Lygaeoidea Species Files), les taxons créés par Peter D. Ashlock sont les suivants, dans les Lygaeidae, sauf mention des autres familles entre parenthèses. Il s'agit de 3 tribus, de 13 genres et de 117 espèces : 
 Antillocorini, Ashlock, 1964
 Arphnus melanotylus, syn. de Cymus melanotylus (Ashlock, 1961) (Cymidae)
 Atrazonotus Slater &amp; Ashlock, 1966 (Rhyparochromidae)
@@ -796,9 +818,11 @@
           <t>Taxons nommés en hommage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre de taxons ont été dénommés en hommage à Peter Ashlock. Au sein des hétéroptères, on peut mentionner[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de taxons ont été dénommés en hommage à Peter Ashlock. Au sein des hétéroptères, on peut mentionner :
 le genre Ashlockia Hamid, 1975 (Cymidae), et les espèces suivantes :
 Aphelocheirus ashlocki D.A. Polhemus &amp; J.T. Polhemus, 1988 (Aphelocheiridae)
 Ashlockia longicorialis Hamid, 1975
